--- a/333 Project/Spreadsheets/Sample Campaign.xlsx
+++ b/333 Project/Spreadsheets/Sample Campaign.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansarij\Documents\333 Classwork\Project\Spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansarij\Documents\333 Classwork\Project\Git\333 Project\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BB4F0E-97D0-4BF6-88FB-E30B83BF48EE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1917F0E1-1775-45B7-A071-060822F7CA83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="132" yWindow="3168" windowWidth="17292" windowHeight="9420" xr2:uid="{1B16FF06-359D-425A-96CD-8451CEE3037A}"/>
+    <workbookView xWindow="732" yWindow="732" windowWidth="17292" windowHeight="9420" activeTab="3" xr2:uid="{1B16FF06-359D-425A-96CD-8451CEE3037A}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="Notes" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="90">
   <si>
     <t>ansarij</t>
   </si>
@@ -224,9 +223,6 @@
     <t>Rhea</t>
   </si>
   <si>
-    <t>Aasimar</t>
-  </si>
-  <si>
     <t>Mountain Sage</t>
   </si>
   <si>
@@ -263,9 +259,6 @@
     <t>Karg</t>
   </si>
   <si>
-    <t>Dwarf</t>
-  </si>
-  <si>
     <t>Lawful Good</t>
   </si>
   <si>
@@ -306,6 +299,15 @@
   </si>
   <si>
     <t>Taki</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyz</t>
+  </si>
+  <si>
+    <t>Half-Orc</t>
+  </si>
+  <si>
+    <t>Protector Aasimar</t>
   </si>
 </sst>
 </file>
@@ -674,7 +676,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{555BDBD6-87F0-439A-9E5B-F1A65661EEDB}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -685,13 +687,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -699,10 +701,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -710,10 +712,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -721,10 +723,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -732,10 +734,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -743,10 +745,10 @@
         <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -851,18 +853,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" t="s">
         <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
         <v>65</v>
-      </c>
-      <c r="B12" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -884,7 +886,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -936,6 +938,9 @@
       <c r="E2" t="s">
         <v>34</v>
       </c>
+      <c r="F2" t="s">
+        <v>87</v>
+      </c>
       <c r="G2" t="s">
         <v>35</v>
       </c>
@@ -1011,6 +1016,9 @@
       <c r="E5" t="s">
         <v>48</v>
       </c>
+      <c r="F5" t="s">
+        <v>87</v>
+      </c>
       <c r="G5" t="s">
         <v>45</v>
       </c>
@@ -1046,25 +1054,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="C7">
         <v>81</v>
       </c>
       <c r="D7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H7">
         <v>10</v>
@@ -1079,8 +1087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A2E86F-2119-4309-9EE2-7D2D0AF26D1B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1137,13 +1145,13 @@
         <v>60</v>
       </c>
       <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
         <v>61</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1169,23 +1177,23 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/333 Project/Spreadsheets/Sample Campaign.xlsx
+++ b/333 Project/Spreadsheets/Sample Campaign.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansarij\Documents\333 Classwork\Project\Git\333 Project\Spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1917F0E1-1775-45B7-A071-060822F7CA83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C49853EC-485D-4E1B-8AF4-26BF3078F893}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="732" yWindow="732" windowWidth="17292" windowHeight="9420" activeTab="3" xr2:uid="{1B16FF06-359D-425A-96CD-8451CEE3037A}"/>
   </bookViews>
